--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,108 +1,206 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\537321\Desktop\PYTHON\vcfdeneme2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D03B9-446F-4457-BE4C-03A1921645EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B980891-E657-4554-B0FC-531E473B9429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="8gsys-z4cd5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>E-mail Address</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>Business Phone</t>
+  </si>
+  <si>
+    <t>Home Fax</t>
+  </si>
+  <si>
+    <t>Business Fax</t>
+  </si>
+  <si>
+    <t>Pager</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Home Street</t>
+  </si>
+  <si>
+    <t>Home Address 2</t>
+  </si>
+  <si>
+    <t>Home City</t>
+  </si>
+  <si>
+    <t>Home State</t>
+  </si>
+  <si>
+    <t>Home Postal Code</t>
+  </si>
+  <si>
+    <t>Home Country</t>
+  </si>
+  <si>
+    <t>Business Address</t>
+  </si>
+  <si>
+    <t>Business Address 2</t>
+  </si>
+  <si>
+    <t>Business City</t>
+  </si>
+  <si>
+    <t>Business State</t>
+  </si>
+  <si>
+    <t>Business Postal Code</t>
+  </si>
+  <si>
+    <t>Business Country</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Related name</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Anniversary</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Web Page</t>
+  </si>
+  <si>
+    <t>Web Page 2</t>
+  </si>
+  <si>
+    <t>Categories</t>
   </si>
   <si>
     <t>deneme@gmail.com</t>
   </si>
   <si>
-    <t>aasd@gmail.com</t>
-  </si>
-  <si>
-    <t>Ali Veli</t>
-  </si>
-  <si>
-    <t>Ahmet Mehmet</t>
-  </si>
-  <si>
-    <t>sdasdf</t>
-  </si>
-  <si>
-    <t>gdfdg</t>
-  </si>
-  <si>
-    <t>dgffd</t>
-  </si>
-  <si>
-    <t>dfssfd</t>
-  </si>
-  <si>
-    <t>vcxxcv</t>
-  </si>
-  <si>
-    <t>xcvv</t>
-  </si>
-  <si>
-    <t>bvcvre</t>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>veli</t>
+  </si>
+  <si>
+    <t>aslı</t>
+  </si>
+  <si>
+    <t>maslı</t>
+  </si>
+  <si>
+    <t>ayca22</t>
+  </si>
+  <si>
+    <t>simdioturum</t>
+  </si>
+  <si>
+    <t>ahmet</t>
+  </si>
+  <si>
+    <t>mehmet</t>
+  </si>
+  <si>
+    <t>adem22</t>
+  </si>
+  <si>
+    <t>madem</t>
+  </si>
+  <si>
+    <t>zapzup@gmail.com</t>
+  </si>
+  <si>
+    <t>Photo URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="162"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,14 +214,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -143,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,7 +255,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -171,7 +267,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -218,6 +314,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -253,6 +366,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -405,224 +535,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" customWidth="1"/>
+    <col min="28" max="28" width="8.28515625" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" customWidth="1"/>
+    <col min="31" max="31" width="6.28515625" customWidth="1"/>
+    <col min="32" max="32" width="8.28515625" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" customWidth="1"/>
+    <col min="35" max="35" width="9.85546875" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" customWidth="1"/>
+    <col min="37" max="37" width="10.140625" customWidth="1"/>
+    <col min="38" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>9050155533</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2">
+        <v>905015552321</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>9050224422</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3">
+        <v>905013333333</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>9050155533</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <v>905052222222</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>9050224422</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5">
+        <v>905015005050</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>9050155533</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6">
+        <v>905050001020</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>9050224422</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>9050155533</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>9050224422</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>9050155533</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>9050224422</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>9050155533</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>9050224422</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>9050155533</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>9050224422</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>9050155533</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>9050224422</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{13E8BCA7-72B5-45DA-83F7-A6620993DF2A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{3F15B70C-DB7A-4278-8556-38667354C8F0}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{8584179B-BDCD-41D2-BFE4-41B9509B5FF9}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{195DEF46-0659-4498-8CEA-77C5811317B3}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{4CF043AC-FDAC-470B-B57F-55761B282906}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{BCA198BD-2DD1-4960-9531-6B68C160CE91}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{13226777-5E15-48E6-9B33-CCCB745C8E68}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{6D8ADE01-8D7B-4542-8E74-46761FE82316}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{95F42329-F006-4D20-9482-B3C857D22D4E}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{6F87AF31-4465-44B7-93F8-C3946D81B059}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{54ADE096-993A-4487-9E8A-8DC89ADF64E3}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{B814E0A5-ADB6-4F94-BE3B-16B65BA54D34}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{262E9218-C76F-4C4D-9611-044F42A81F5F}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{6F6B0D1E-EC7B-4C2F-9CCE-CDD166423A13}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{E067D881-2A75-493B-850F-2D4F73BC82F4}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{C4C83B94-535B-477E-BF4B-E25FCAB53DE9}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F664091A-765E-4B38-81E9-3A6A63F0B9D6}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{84F988AA-BC9C-46AE-B28E-1EA768874933}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{03AF8487-8D23-4DB4-AF35-F0B1BDEA61C9}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{D3CC6AD5-46F4-4785-BF97-BC3691C1B15B}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{D6B2A3C5-86CA-43A1-932F-9C89D152A804}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId17"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>